--- a/eBay_Test_Automation_Muhit Khan.xlsx
+++ b/eBay_Test_Automation_Muhit Khan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhit\Desktop\QCI-Task\ebay_qa_automation\eBay_QA_Automation_with_SeleniumAndPythonBehave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhit\Desktop\QCI-Task\ebay_qa_automation\eBay_QA_Automation_Python-Selenium-Behave-Allure-BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FE8863-7F8C-471B-91EE-639597600D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C9911D-A85B-4F83-A719-59CC77D8974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{FA4988DE-C41D-417A-9EDB-F810760A9BFC}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="323">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -406,9 +406,6 @@
     <t>Created By</t>
   </si>
   <si>
-    <t>MUHIT KHAN</t>
-  </si>
-  <si>
     <t>Creation Date</t>
   </si>
   <si>
@@ -418,23 +415,587 @@
     <t>Reviewed Date</t>
   </si>
   <si>
-    <t>MM-DD-YYYY</t>
-  </si>
-  <si>
     <t>As expected</t>
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>TC_043</t>
+  </si>
+  <si>
+    <t>Recently Viewed Products</t>
+  </si>
+  <si>
+    <t>Product-1 Add to Cart</t>
+  </si>
+  <si>
+    <t>TC_044</t>
+  </si>
+  <si>
+    <t>TC_045</t>
+  </si>
+  <si>
+    <t>I should see the search bar</t>
+  </si>
+  <si>
+    <t>TC_046</t>
+  </si>
+  <si>
+    <t>Search for "Asus"</t>
+  </si>
+  <si>
+    <t>Search results for "Asus" are displayed</t>
+  </si>
+  <si>
+    <t>TC_047</t>
+  </si>
+  <si>
+    <t>I should see "Asus" in the search results</t>
+  </si>
+  <si>
+    <t>Asus is visible in the search result</t>
+  </si>
+  <si>
+    <t>TC_048</t>
+  </si>
+  <si>
+    <t>I view the product details of the seventh product</t>
+  </si>
+  <si>
+    <t>TC_049</t>
+  </si>
+  <si>
+    <t>I should see the Add to Cart button</t>
+  </si>
+  <si>
+    <t>Add to cart button is visible</t>
+  </si>
+  <si>
+    <t>TC_050</t>
+  </si>
+  <si>
+    <t>Click on Add to Cart button</t>
+  </si>
+  <si>
+    <t>Cart page is displayed</t>
+  </si>
+  <si>
+    <t>TC_051</t>
+  </si>
+  <si>
+    <t>I should see the cart page</t>
+  </si>
+  <si>
+    <t>TC_052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product-2 Add to Cart </t>
+  </si>
+  <si>
+    <t>TC_053</t>
+  </si>
+  <si>
+    <t>TC_054</t>
+  </si>
+  <si>
+    <t>TC_055</t>
+  </si>
+  <si>
+    <t>TC_056</t>
+  </si>
+  <si>
+    <t>TC_057</t>
+  </si>
+  <si>
+    <t>TC_058</t>
+  </si>
+  <si>
+    <t>TC_059</t>
+  </si>
+  <si>
+    <t>TC_060</t>
+  </si>
+  <si>
+    <t>TC_061</t>
+  </si>
+  <si>
+    <t>TC_062</t>
+  </si>
+  <si>
+    <t>TC_063</t>
+  </si>
+  <si>
+    <t>I should see the Recently Viewed Products section</t>
+  </si>
+  <si>
+    <t>Recently Viewed Products section is visible</t>
+  </si>
+  <si>
+    <t>TC_064</t>
+  </si>
+  <si>
+    <t>I should see the product-1 title</t>
+  </si>
+  <si>
+    <t>product-1 title is visible</t>
+  </si>
+  <si>
+    <t>TC_065</t>
+  </si>
+  <si>
+    <t>I should see the product-1 price</t>
+  </si>
+  <si>
+    <t>product-1 price is visible</t>
+  </si>
+  <si>
+    <t>TC_066</t>
+  </si>
+  <si>
+    <t>I should see the product-1 image</t>
+  </si>
+  <si>
+    <t>product-1 image is visible</t>
+  </si>
+  <si>
+    <t>TC_067</t>
+  </si>
+  <si>
+    <t>TC_068</t>
+  </si>
+  <si>
+    <t>TC_069</t>
+  </si>
+  <si>
+    <t>TC_070</t>
+  </si>
+  <si>
+    <t>TC_071</t>
+  </si>
+  <si>
+    <t>I view the product page of product-1</t>
+  </si>
+  <si>
+    <t>Product page is displayed</t>
+  </si>
+  <si>
+    <t>TC_072</t>
+  </si>
+  <si>
+    <t>I should see the product name on the product page</t>
+  </si>
+  <si>
+    <t>Product name is visible</t>
+  </si>
+  <si>
+    <t>TC_073</t>
+  </si>
+  <si>
+    <t>I should see the product price on the product page</t>
+  </si>
+  <si>
+    <t>Product price is visible</t>
+  </si>
+  <si>
+    <t>TC_074</t>
+  </si>
+  <si>
+    <t>I should see the product description on the product page</t>
+  </si>
+  <si>
+    <t>Product description is visible</t>
+  </si>
+  <si>
+    <t>TC_075</t>
+  </si>
+  <si>
+    <t>I should see the product image on the product page</t>
+  </si>
+  <si>
+    <t>Product image is visible</t>
+  </si>
+  <si>
+    <t>TC_076</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Cart Page</t>
+  </si>
+  <si>
+    <t>TC_077</t>
+  </si>
+  <si>
+    <t>TC_078</t>
+  </si>
+  <si>
+    <t>I should see the cart icon</t>
+  </si>
+  <si>
+    <t>Cart icon is visible</t>
+  </si>
+  <si>
+    <t>TC_079</t>
+  </si>
+  <si>
+    <t>Click on cart icon</t>
+  </si>
+  <si>
+    <t>TC_080</t>
+  </si>
+  <si>
+    <t>TC_081</t>
+  </si>
+  <si>
+    <t>I should see the Empty Cart message</t>
+  </si>
+  <si>
+    <t>Empty cart message is visible</t>
+  </si>
+  <si>
+    <t>TC_082</t>
+  </si>
+  <si>
+    <t>I should see the Sign In button</t>
+  </si>
+  <si>
+    <t>Sign In button is visible</t>
+  </si>
+  <si>
+    <t>TC_083</t>
+  </si>
+  <si>
+    <t>Add to Cart</t>
+  </si>
+  <si>
+    <t>TC_084</t>
+  </si>
+  <si>
+    <t>TC_085</t>
+  </si>
+  <si>
+    <t>TC_086</t>
+  </si>
+  <si>
+    <t>Search result page for "Asus" is displayed</t>
+  </si>
+  <si>
+    <t>TC_087</t>
+  </si>
+  <si>
+    <t>Asus is visible in the search results</t>
+  </si>
+  <si>
+    <t>TC_088</t>
+  </si>
+  <si>
+    <t>Product details page for the seventh product is displayed</t>
+  </si>
+  <si>
+    <t>TC_089</t>
+  </si>
+  <si>
+    <t>TC_090</t>
+  </si>
+  <si>
+    <t>TC_091</t>
+  </si>
+  <si>
+    <t>TC_092</t>
+  </si>
+  <si>
+    <t>I should see the product is added to cart</t>
+  </si>
+  <si>
+    <t>Product is added to cart</t>
+  </si>
+  <si>
+    <t>TC_093</t>
+  </si>
+  <si>
+    <t>Remove from Cart</t>
+  </si>
+  <si>
+    <t>TC_094</t>
+  </si>
+  <si>
+    <t>TC_095</t>
+  </si>
+  <si>
+    <t>TC_096</t>
+  </si>
+  <si>
+    <t>Search result for "Asus" is displayed</t>
+  </si>
+  <si>
+    <t>TC_097</t>
+  </si>
+  <si>
+    <t>TC_098</t>
+  </si>
+  <si>
+    <t>TC_099</t>
+  </si>
+  <si>
+    <t>TC_100</t>
+  </si>
+  <si>
+    <t>TC_101</t>
+  </si>
+  <si>
+    <t>TC_102</t>
+  </si>
+  <si>
+    <t>TC_103</t>
+  </si>
+  <si>
+    <t>I should see the remove button</t>
+  </si>
+  <si>
+    <t>Remove button is visible</t>
+  </si>
+  <si>
+    <t>TC_104</t>
+  </si>
+  <si>
+    <t>Click on remove button</t>
+  </si>
+  <si>
+    <t>Product is removed from cart</t>
+  </si>
+  <si>
+    <t>TC_105</t>
+  </si>
+  <si>
+    <t>I should see the product is removed from cart</t>
+  </si>
+  <si>
+    <t>TC_106</t>
+  </si>
+  <si>
+    <t>TC_107</t>
+  </si>
+  <si>
+    <t>TC_108</t>
+  </si>
+  <si>
+    <t>Customer also bought</t>
+  </si>
+  <si>
+    <t>User can see Customer also bought items</t>
+  </si>
+  <si>
+    <t>TC_109</t>
+  </si>
+  <si>
+    <t>TC_110</t>
+  </si>
+  <si>
+    <t>Search result for "HP" is displayed</t>
+  </si>
+  <si>
+    <t>TC_111</t>
+  </si>
+  <si>
+    <t>I should see "HP" in the search results</t>
+  </si>
+  <si>
+    <t>HP is visible in the search results</t>
+  </si>
+  <si>
+    <t>TC_112</t>
+  </si>
+  <si>
+    <t>TC_113</t>
+  </si>
+  <si>
+    <t>I should see the Customer also boughts section</t>
+  </si>
+  <si>
+    <t>Customer also bought section is visible</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>I should see Customer also bought item's condition</t>
+  </si>
+  <si>
+    <t>Customer also bought item's condition is visible</t>
+  </si>
+  <si>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>I should see Customer also bought item's price</t>
+  </si>
+  <si>
+    <t>Customer also bought item's price is visible</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>I should see Customer also bought item's title</t>
+  </si>
+  <si>
+    <t>Customer also bought item's title is visible</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>Visit Customer also bought's page</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>Click on the first Customer also boughts Item</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>Similar Items</t>
+  </si>
+  <si>
+    <t>User can see similar items</t>
+  </si>
+  <si>
+    <t>TC_129</t>
+  </si>
+  <si>
+    <t>TC_130</t>
+  </si>
+  <si>
+    <t>TC_131</t>
+  </si>
+  <si>
+    <t>TC_132</t>
+  </si>
+  <si>
+    <t>TC_133</t>
+  </si>
+  <si>
+    <t>I should see the Similar Items section</t>
+  </si>
+  <si>
+    <t>Similar items section is visible</t>
+  </si>
+  <si>
+    <t>TC_134</t>
+  </si>
+  <si>
+    <t>I should see Similar Item's title</t>
+  </si>
+  <si>
+    <t>Similar item's title is visible</t>
+  </si>
+  <si>
+    <t>TC_135</t>
+  </si>
+  <si>
+    <t>I should see Similar Item's condition</t>
+  </si>
+  <si>
+    <t>Similar item's condition is visible</t>
+  </si>
+  <si>
+    <t>TC_136</t>
+  </si>
+  <si>
+    <t>I should see Similar Item's price</t>
+  </si>
+  <si>
+    <t>Similar item's price is visible</t>
+  </si>
+  <si>
+    <t>TC_137</t>
+  </si>
+  <si>
+    <t>Visit Similar Item's page</t>
+  </si>
+  <si>
+    <t>TC_138</t>
+  </si>
+  <si>
+    <t>TC_139</t>
+  </si>
+  <si>
+    <t>TC_140</t>
+  </si>
+  <si>
+    <t>TC_141</t>
+  </si>
+  <si>
+    <t>TC_142</t>
+  </si>
+  <si>
+    <t>TC_143</t>
+  </si>
+  <si>
+    <t>Click on the first Similar Item</t>
+  </si>
+  <si>
+    <t>TC_144</t>
+  </si>
+  <si>
+    <t>TC_145</t>
+  </si>
+  <si>
+    <t>TC_146</t>
+  </si>
+  <si>
+    <t>TC_147</t>
+  </si>
+  <si>
+    <t>Check Recently Viewed Products Segment</t>
+  </si>
+  <si>
+    <t>Check Recently Viewed Products Details</t>
+  </si>
+  <si>
+    <t>MUIT KHAN</t>
+  </si>
+  <si>
+    <t>MM/DD/YYYY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-  </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,13 +1138,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -596,13 +1150,31 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Poppins"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,8 +1384,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -929,43 +1513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -989,43 +1536,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1064,6 +1574,117 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1113,88 +1734,125 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="19" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="39" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="6" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="6" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="6" borderId="12" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1550,18 +2208,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4C8505-44FC-4B6B-B751-5A0A1B00126A}">
-  <dimension ref="A2:H51"/>
+  <dimension ref="A1:Y156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="D84" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.5" style="1" customWidth="1"/>
@@ -1569,974 +2227,3166 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+    <row r="1" spans="1:25" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+    </row>
+    <row r="2" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C2" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="36">
+        <v>45438</v>
+      </c>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="8">
-        <v>45438</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:25" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D7" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+    </row>
+    <row r="17" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+    </row>
+    <row r="18" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+    </row>
+    <row r="19" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+    </row>
+    <row r="20" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+    </row>
+    <row r="21" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+    </row>
+    <row r="22" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+    </row>
+    <row r="23" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+    </row>
+    <row r="24" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="B52" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="11" t="s">
+      <c r="C52" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="24"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E53" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="F53" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="24"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="F54" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" s="24"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="24"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="24"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" s="24"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" s="24"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" s="24"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H60" s="24"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E61" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="11" t="s">
+      <c r="F61" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" s="24"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E62" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="F62" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62" s="24"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H63" s="24"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H64" s="24"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H65" s="24"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H66" s="24"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H67" s="24"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H68" s="24"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H69" s="24"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E70" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="11" t="s">
+      <c r="F70" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H70" s="24"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E71" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="11" t="s">
+      <c r="F71" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H71" s="24"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H72" s="24"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H73" s="24"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H74" s="24"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="13"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H75" s="24"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" s="13"/>
+      <c r="C76" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H76" s="24"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H77" s="24"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" s="13"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H78" s="24"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H79" s="24"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H80" s="24"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H81" s="24"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H82" s="24"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H83" s="24"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H84" s="24"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H85" s="24"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H86" s="24"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H87" s="24"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H88" s="24"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H89" s="24"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H90" s="24"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H91" s="24"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H92" s="24"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H93" s="24"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H94" s="24"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H95" s="24"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H96" s="24"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H97" s="24"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H98" s="24"/>
+    </row>
+    <row r="99" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H99" s="24"/>
+    </row>
+    <row r="100" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H100" s="24"/>
+    </row>
+    <row r="101" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H101" s="24"/>
+    </row>
+    <row r="102" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H102" s="24"/>
+    </row>
+    <row r="103" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B103" s="13"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H103" s="24"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B104" s="13"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H104" s="24"/>
+    </row>
+    <row r="105" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H105" s="24"/>
+    </row>
+    <row r="106" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B106" s="13"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F106" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H106" s="24"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G107" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H107" s="24"/>
+    </row>
+    <row r="108" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H108" s="24"/>
+    </row>
+    <row r="109" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H109" s="24"/>
+    </row>
+    <row r="110" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H110" s="24"/>
+    </row>
+    <row r="111" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H111" s="24"/>
+    </row>
+    <row r="112" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B112" s="13"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H112" s="24"/>
+    </row>
+    <row r="113" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" s="13"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G113" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H113" s="24"/>
+    </row>
+    <row r="114" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114" s="13"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H114" s="24"/>
+    </row>
+    <row r="115" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H115" s="24"/>
+    </row>
+    <row r="116" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B116" s="13"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H116" s="24"/>
+    </row>
+    <row r="117" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H117" s="24"/>
+    </row>
+    <row r="118" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B118" s="13"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H118" s="24"/>
+    </row>
+    <row r="119" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B119" s="13"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="E119" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H119" s="24"/>
+    </row>
+    <row r="120" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B120" s="13"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H120" s="24"/>
+    </row>
+    <row r="121" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B121" s="13"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G121" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H121" s="24"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" s="13"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H122" s="24"/>
+    </row>
+    <row r="123" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B123" s="13"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H123" s="24"/>
+    </row>
+    <row r="124" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B124" s="13"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H124" s="24"/>
+    </row>
+    <row r="125" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B125" s="13"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H125" s="24"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B126" s="13"/>
+      <c r="C126" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D126" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E126" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="11" t="s">
+      <c r="F126" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H126" s="24"/>
+    </row>
+    <row r="127" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B127" s="13"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E127" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="F127" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H127" s="24"/>
+    </row>
+    <row r="128" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B128" s="13"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H128" s="24"/>
+    </row>
+    <row r="129" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B129" s="13"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G129" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H129" s="24"/>
+    </row>
+    <row r="130" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B130" s="13"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E130" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F130" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G130" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H130" s="24"/>
+    </row>
+    <row r="131" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B131" s="13"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G131" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H131" s="24"/>
+    </row>
+    <row r="132" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B132" s="13"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G132" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H132" s="24"/>
+    </row>
+    <row r="133" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B133" s="13"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E133" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G133" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H133" s="24"/>
+    </row>
+    <row r="134" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B134" s="13"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E134" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G134" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H134" s="24"/>
+    </row>
+    <row r="135" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B135" s="13"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F135" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G135" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H135" s="24"/>
+    </row>
+    <row r="136" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B136" s="13"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E136" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F136" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H136" s="24"/>
+    </row>
+    <row r="137" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D137" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E137" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="11" t="s">
+      <c r="F137" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H137" s="24"/>
+    </row>
+    <row r="138" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B138" s="13"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E138" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="H51" s="16"/>
+      <c r="F138" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G138" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H138" s="24"/>
+    </row>
+    <row r="139" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B139" s="13"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E139" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F139" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G139" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H139" s="24"/>
+    </row>
+    <row r="140" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B140" s="13"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E140" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F140" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H140" s="24"/>
+    </row>
+    <row r="141" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B141" s="13"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E141" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F141" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H141" s="24"/>
+    </row>
+    <row r="142" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B142" s="13"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="F142" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G142" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H142" s="24"/>
+    </row>
+    <row r="143" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B143" s="13"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E143" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="F143" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G143" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H143" s="24"/>
+    </row>
+    <row r="144" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B144" s="13"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E144" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="F144" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G144" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H144" s="24"/>
+    </row>
+    <row r="145" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B145" s="13"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="E145" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="F145" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G145" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H145" s="24"/>
+    </row>
+    <row r="146" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B146" s="13"/>
+      <c r="C146" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G146" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H146" s="24"/>
+    </row>
+    <row r="147" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B147" s="13"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G147" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H147" s="24"/>
+    </row>
+    <row r="148" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B148" s="13"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E148" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F148" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G148" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H148" s="24"/>
+    </row>
+    <row r="149" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B149" s="13"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E149" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F149" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G149" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H149" s="24"/>
+    </row>
+    <row r="150" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B150" s="13"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E150" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F150" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G150" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H150" s="24"/>
+    </row>
+    <row r="151" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B151" s="13"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="E151" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G151" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H151" s="24"/>
+    </row>
+    <row r="152" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B152" s="13"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="E152" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F152" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G152" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H152" s="24"/>
+    </row>
+    <row r="153" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B153" s="13"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E153" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F153" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G153" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H153" s="24"/>
+    </row>
+    <row r="154" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B154" s="13"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E154" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F154" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G154" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H154" s="24"/>
+    </row>
+    <row r="155" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B155" s="13"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F155" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G155" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H155" s="24"/>
+    </row>
+    <row r="156" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" s="8"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E156" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H156" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="31">
+    <mergeCell ref="C146:C156"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C92:C101"/>
+    <mergeCell ref="C102:C116"/>
+    <mergeCell ref="C117:C125"/>
+    <mergeCell ref="C126:C136"/>
+    <mergeCell ref="C137:C145"/>
+    <mergeCell ref="C52:C60"/>
+    <mergeCell ref="C61:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="C85:C91"/>
+    <mergeCell ref="B52:B84"/>
+    <mergeCell ref="B85:B116"/>
+    <mergeCell ref="B117:B136"/>
+    <mergeCell ref="B137:B156"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B51"/>
     <mergeCell ref="C10:C17"/>
     <mergeCell ref="C18:C30"/>
     <mergeCell ref="C31:C38"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C44:C51"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/eBay_Test_Automation_Muhit Khan.xlsx
+++ b/eBay_Test_Automation_Muhit Khan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhit\Desktop\QCI-Task\ebay_qa_automation\eBay_QA_Automation_Python-Selenium-Behave-Allure-BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C9911D-A85B-4F83-A719-59CC77D8974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4727DD-08CB-4EA0-B3C9-850E27864159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{FA4988DE-C41D-417A-9EDB-F810760A9BFC}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="345">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -989,13 +989,79 @@
   </si>
   <si>
     <t>MM/DD/YYYY</t>
+  </si>
+  <si>
+    <t>User can see About this item</t>
+  </si>
+  <si>
+    <t>User can see Shipping, returns, and payments</t>
+  </si>
+  <si>
+    <t>I should see the Shipping, return, and payments button</t>
+  </si>
+  <si>
+    <t>I should see the Shipping and handling</t>
+  </si>
+  <si>
+    <t>I should see the Return policy</t>
+  </si>
+  <si>
+    <t>I should see the Payment details</t>
+  </si>
+  <si>
+    <t>TC_148</t>
+  </si>
+  <si>
+    <t>TC_149</t>
+  </si>
+  <si>
+    <t>TC_150</t>
+  </si>
+  <si>
+    <t>TC_151</t>
+  </si>
+  <si>
+    <t>TC_152</t>
+  </si>
+  <si>
+    <t>TC_153</t>
+  </si>
+  <si>
+    <t>TC_154</t>
+  </si>
+  <si>
+    <t>TC_155</t>
+  </si>
+  <si>
+    <t>TC_156</t>
+  </si>
+  <si>
+    <t>TC_157</t>
+  </si>
+  <si>
+    <t>TC_158</t>
+  </si>
+  <si>
+    <t>TC_159</t>
+  </si>
+  <si>
+    <t>TC_160</t>
+  </si>
+  <si>
+    <t>TC_161</t>
+  </si>
+  <si>
+    <t>TC_162</t>
+  </si>
+  <si>
+    <t>TC_163</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1172,6 +1238,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="40">
@@ -1397,7 +1474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1689,6 +1766,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1734,7 +1831,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1753,25 +1850,10 @@
     <xf numFmtId="0" fontId="21" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1786,21 +1868,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1809,9 +1876,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1822,29 +1886,33 @@
     <xf numFmtId="0" fontId="23" fillId="38" borderId="19" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="24" fillId="39" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="24" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1852,7 +1920,76 @@
     <xf numFmtId="0" fontId="24" fillId="39" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2208,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4C8505-44FC-4B6B-B751-5A0A1B00126A}">
-  <dimension ref="A1:Y156"/>
+  <dimension ref="A1:Y176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D84" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="57" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2228,61 +2365,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="32"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="35"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="28">
         <v>45438</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:25" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
@@ -2291,28 +2428,28 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2320,42 +2457,42 @@
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="18"/>
+      <c r="F10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H11" s="5"/>
@@ -2364,18 +2501,18 @@
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H12" s="5"/>
@@ -2384,18 +2521,18 @@
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="F13" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H13" s="5"/>
@@ -2404,18 +2541,18 @@
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H14" s="5"/>
@@ -2424,18 +2561,18 @@
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H15" s="5"/>
@@ -2444,18 +2581,18 @@
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="22" t="s">
+      <c r="F16" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H16" s="5"/>
@@ -2467,24 +2604,24 @@
       <c r="Y16"/>
     </row>
     <row r="17" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="54"/>
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
@@ -2493,28 +2630,28 @@
       <c r="Y17"/>
     </row>
     <row r="18" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="5"/>
+      <c r="F18" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="13"/>
       <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
@@ -2526,18 +2663,18 @@
       <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="22" t="s">
+      <c r="F19" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H19" s="5"/>
@@ -2552,18 +2689,18 @@
       <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="22" t="s">
+      <c r="F20" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H20" s="5"/>
@@ -2578,18 +2715,18 @@
       <c r="A21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="22" t="s">
+      <c r="F21" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H21" s="5"/>
@@ -2604,18 +2741,18 @@
       <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="F22" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H22" s="5"/>
@@ -2630,18 +2767,18 @@
       <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="F23" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H23" s="5"/>
@@ -2656,18 +2793,18 @@
       <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="22" t="s">
+      <c r="F24" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H24" s="5"/>
@@ -2676,18 +2813,18 @@
       <c r="A25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="22" t="s">
+      <c r="F25" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H25" s="5"/>
@@ -2696,18 +2833,18 @@
       <c r="A26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="22" t="s">
+      <c r="F26" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H26" s="5"/>
@@ -2716,18 +2853,18 @@
       <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" s="22" t="s">
+      <c r="F27" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H27" s="5"/>
@@ -2736,18 +2873,18 @@
       <c r="A28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="22" t="s">
+      <c r="F28" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H28" s="5"/>
@@ -2756,82 +2893,82 @@
       <c r="A29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="22" t="s">
+      <c r="F29" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="5"/>
+      <c r="F30" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="20" t="s">
+      <c r="B31" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" s="5"/>
+      <c r="F31" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20" t="s">
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="22" t="s">
+      <c r="F32" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H32" s="5"/>
@@ -2840,18 +2977,18 @@
       <c r="A33" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="22" t="s">
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H33" s="5"/>
@@ -2860,78 +2997,82 @@
       <c r="A34" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" s="22" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H35" s="5"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="54"/>
     </row>
     <row r="36" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H36" s="5"/>
+      <c r="B36" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="22" t="s">
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H37" s="5"/>
@@ -2940,18 +3081,18 @@
       <c r="A38" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="22" t="s">
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H38" s="5"/>
@@ -2960,22 +3101,18 @@
       <c r="A39" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="22" t="s">
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H39" s="5"/>
@@ -2984,18 +3121,18 @@
       <c r="A40" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" s="22" t="s">
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H40" s="5"/>
@@ -3004,18 +3141,18 @@
       <c r="A41" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G41" s="22" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H41" s="5"/>
@@ -3024,82 +3161,82 @@
       <c r="A42" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" s="22" t="s">
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H43" s="5"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="54"/>
     </row>
     <row r="44" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="20" t="s">
+      <c r="B44" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H44" s="5"/>
+      <c r="F44" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20" t="s">
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="22" t="s">
+      <c r="F45" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H45" s="5"/>
@@ -3108,18 +3245,18 @@
       <c r="A46" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="20" t="s">
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" s="22" t="s">
+      <c r="F46" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H46" s="5"/>
@@ -3128,18 +3265,18 @@
       <c r="A47" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" s="22" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H47" s="5"/>
@@ -3148,18 +3285,18 @@
       <c r="A48" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G48" s="22" t="s">
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H48" s="5"/>
@@ -3168,18 +3305,18 @@
       <c r="A49" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G49" s="22" t="s">
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H49" s="5"/>
@@ -3188,18 +3325,18 @@
       <c r="A50" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G50" s="22" t="s">
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H50" s="5"/>
@@ -3208,18 +3345,18 @@
       <c r="A51" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G51" s="22" t="s">
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G51" s="40" t="s">
         <v>132</v>
       </c>
       <c r="H51" s="5"/>
@@ -3228,2166 +3365,2517 @@
       <c r="A52" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H52" s="24"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H53" s="24"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H54" s="24"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H55" s="24"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H56" s="24"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H57" s="24"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H58" s="24"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" s="24"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E60" s="23" t="s">
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="F60" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H60" s="24"/>
+      <c r="F60" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H61" s="24"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G61" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H62" s="24"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H63" s="24"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H64" s="24"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F64" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H65" s="24"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G66" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H66" s="24"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H67" s="24"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H67" s="14"/>
     </row>
     <row r="68" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H68" s="24"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H69" s="24"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H69" s="14"/>
     </row>
     <row r="70" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G70" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H70" s="24"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H71" s="24"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H71" s="14"/>
     </row>
     <row r="72" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H72" s="24"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F72" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H73" s="24"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G74" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H74" s="24"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H74" s="14"/>
     </row>
     <row r="75" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F75" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G75" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H75" s="24"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H75" s="14"/>
     </row>
     <row r="76" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="D76" s="23" t="s">
+      <c r="B76" s="32"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="23" t="s">
+      <c r="E77" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H76" s="24"/>
-    </row>
-    <row r="77" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G77" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H77" s="24"/>
+      <c r="F77" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H77" s="56"/>
     </row>
     <row r="78" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F78" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G78" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H78" s="24"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G78" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H78" s="14"/>
     </row>
     <row r="79" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H79" s="24"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="F79" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G79" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H79" s="14"/>
     </row>
     <row r="80" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H80" s="24"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="E80" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G80" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H80" s="14"/>
     </row>
     <row r="81" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H81" s="24"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H81" s="14"/>
     </row>
     <row r="82" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H82" s="24"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H82" s="14"/>
     </row>
     <row r="83" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F83" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G83" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H83" s="24"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="F83" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H83" s="14"/>
     </row>
     <row r="84" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G84" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H84" s="24"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H84" s="14"/>
     </row>
     <row r="85" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B85" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G85" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H85" s="24"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G85" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H85" s="14"/>
     </row>
     <row r="86" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G86" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H86" s="24"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G86" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H86" s="14"/>
     </row>
     <row r="87" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="E87" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="F87" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G87" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H87" s="24"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F87" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G87" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H87" s="14"/>
     </row>
     <row r="88" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F88" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G88" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H88" s="24"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="F88" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G88" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H88" s="14"/>
     </row>
     <row r="89" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F89" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G89" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H89" s="24"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="F89" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G89" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H89" s="14"/>
     </row>
     <row r="90" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F90" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G90" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H90" s="24"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F90" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G90" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="E91" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F91" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G91" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H91" s="24"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E91" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F91" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G91" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H91" s="14"/>
     </row>
     <row r="92" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G92" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H92" s="24"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F92" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G92" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G93" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H93" s="24"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="F93" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G93" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F94" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G94" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H94" s="24"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G94" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H94" s="14"/>
     </row>
     <row r="95" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E95" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="F95" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G95" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H95" s="24"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G95" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H95" s="14"/>
     </row>
     <row r="96" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F96" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G96" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H96" s="24"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G96" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F97" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G97" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H97" s="24"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="F97" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G97" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H97" s="14"/>
     </row>
     <row r="98" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E98" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F98" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G98" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H98" s="24"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E98" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="F98" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G98" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E99" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F99" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G99" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H99" s="24"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E99" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="F99" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G99" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H99" s="14"/>
     </row>
     <row r="100" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F100" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G100" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H100" s="24"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F100" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G100" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H100" s="14"/>
     </row>
     <row r="101" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="F101" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G101" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H101" s="24"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F101" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G101" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H101" s="14"/>
     </row>
     <row r="102" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G102" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H102" s="24"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F102" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G102" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H102" s="14"/>
     </row>
     <row r="103" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G103" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H103" s="24"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E103" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="F103" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G103" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H103" s="14"/>
     </row>
     <row r="104" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F104" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G104" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H104" s="24"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="E104" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="F104" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G104" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H104" s="14"/>
     </row>
     <row r="105" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E105" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="F105" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G105" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H105" s="24"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="F105" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G105" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H105" s="14"/>
     </row>
     <row r="106" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F106" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G106" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H106" s="24"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="E106" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="F106" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G106" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H106" s="14"/>
     </row>
     <row r="107" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E107" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F107" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G107" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H107" s="24"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="E107" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G107" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E108" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F108" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G108" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H108" s="24"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H108" s="16"/>
     </row>
     <row r="109" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F109" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G109" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H109" s="24"/>
+      <c r="B109" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="D109" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H109" s="56"/>
     </row>
     <row r="110" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E110" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="F110" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G110" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H110" s="24"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G110" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B111" s="13"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="E111" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="F111" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G111" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H111" s="24"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E111" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F111" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G111" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B112" s="13"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E112" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="F112" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G112" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H112" s="24"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E112" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="F112" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G112" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="E113" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G113" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H113" s="24"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E113" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="F113" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G113" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H113" s="14"/>
     </row>
     <row r="114" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B114" s="13"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="E114" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="F114" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G114" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H114" s="24"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="E114" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="F114" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G114" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B115" s="13"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="E115" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F115" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H115" s="24"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E115" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="F115" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G115" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B116" s="13"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E116" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F116" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H116" s="24"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E116" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F116" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G116" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H116" s="14"/>
     </row>
     <row r="117" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B117" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="D117" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G117" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H117" s="24"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E117" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="F117" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G117" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H118" s="24"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D118" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G118" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B119" s="13"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E119" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="F119" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G119" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H119" s="24"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G119" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="E120" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="F120" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G120" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H120" s="24"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E120" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F120" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G120" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B121" s="13"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E121" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F121" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G121" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H121" s="24"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E121" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="F121" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G121" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B122" s="13"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="E122" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="F122" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G122" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H122" s="24"/>
+      <c r="B122" s="36"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E122" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="F122" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G122" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H122" s="14"/>
     </row>
     <row r="123" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="E123" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F123" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G123" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H123" s="24"/>
+      <c r="B123" s="36"/>
+      <c r="C123" s="37"/>
+      <c r="D123" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="E123" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="F123" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G123" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H123" s="14"/>
     </row>
     <row r="124" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="E124" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="F124" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H124" s="24"/>
+      <c r="B124" s="36"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="E124" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F124" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G124" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B125" s="13"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="E125" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="F125" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G125" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H125" s="24"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E125" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F125" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G125" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H125" s="14"/>
     </row>
     <row r="126" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B126" s="13"/>
-      <c r="C126" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D126" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G126" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H126" s="24"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E126" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="F126" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G126" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B127" s="13"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G127" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H127" s="24"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E127" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F127" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G127" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H127" s="14"/>
     </row>
     <row r="128" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E128" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="F128" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G128" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H128" s="24"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H128" s="16"/>
     </row>
     <row r="129" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B129" s="13"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="E129" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="F129" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G129" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H129" s="24"/>
+      <c r="B129" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C129" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D129" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H129" s="56"/>
     </row>
     <row r="130" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B130" s="13"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E130" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F130" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G130" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H130" s="24"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="37"/>
+      <c r="D130" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G130" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H130" s="14"/>
     </row>
     <row r="131" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B131" s="13"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="E131" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="F131" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G131" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H131" s="24"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="37"/>
+      <c r="D131" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E131" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F131" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G131" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H131" s="14"/>
     </row>
     <row r="132" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="E132" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F132" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G132" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H132" s="24"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E132" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G132" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H132" s="14"/>
     </row>
     <row r="133" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B133" s="13"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E133" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F133" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G133" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H133" s="24"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="37"/>
+      <c r="D133" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E133" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="F133" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G133" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H133" s="14"/>
     </row>
     <row r="134" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B134" s="13"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E134" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F134" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G134" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H134" s="24"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="37"/>
+      <c r="D134" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="E134" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="F134" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G134" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H134" s="14"/>
     </row>
     <row r="135" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B135" s="13"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="E135" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F135" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G135" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H135" s="24"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="E135" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="F135" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G135" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B136" s="13"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="E136" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="F136" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G136" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H136" s="24"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="37"/>
+      <c r="D136" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="E136" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="F136" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G136" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H136" s="14"/>
     </row>
     <row r="137" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B137" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="D137" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G137" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H137" s="24"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E137" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="F137" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G137" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H137" s="14"/>
     </row>
     <row r="138" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B138" s="13"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F138" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G138" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H138" s="24"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="D138" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G138" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B139" s="13"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E139" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="F139" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G139" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H139" s="24"/>
+      <c r="B139" s="36"/>
+      <c r="C139" s="37"/>
+      <c r="D139" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G139" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B140" s="13"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="E140" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="F140" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G140" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H140" s="24"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E140" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F140" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G140" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H140" s="14"/>
     </row>
     <row r="141" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B141" s="13"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E141" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F141" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G141" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H141" s="24"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="37"/>
+      <c r="D141" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E141" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="F141" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G141" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H141" s="14"/>
     </row>
     <row r="142" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B142" s="13"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="E142" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="F142" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G142" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H142" s="24"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="F142" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G142" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H142" s="14"/>
     </row>
     <row r="143" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B143" s="13"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="E143" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="F143" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G143" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H143" s="24"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="37"/>
+      <c r="D143" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="E143" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="F143" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G143" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H143" s="14"/>
     </row>
     <row r="144" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B144" s="13"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="E144" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="F144" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G144" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H144" s="24"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="37"/>
+      <c r="D144" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="E144" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F144" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G144" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H144" s="14"/>
     </row>
     <row r="145" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B145" s="13"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E145" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="F145" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G145" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H145" s="24"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E145" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F145" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G145" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H145" s="14"/>
     </row>
     <row r="146" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B146" s="13"/>
-      <c r="C146" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="D146" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E146" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G146" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H146" s="24"/>
+      <c r="B146" s="36"/>
+      <c r="C146" s="37"/>
+      <c r="D146" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E146" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="F146" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G146" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H146" s="14"/>
     </row>
     <row r="147" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B147" s="13"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F147" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G147" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H147" s="24"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="37"/>
+      <c r="D147" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E147" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F147" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G147" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H147" s="14"/>
     </row>
     <row r="148" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B148" s="13"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E148" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="F148" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G148" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H148" s="24"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E148" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H148" s="16"/>
     </row>
     <row r="149" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B149" s="13"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="E149" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="F149" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G149" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H149" s="24"/>
+      <c r="B149" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C149" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G149" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H149" s="56"/>
     </row>
     <row r="150" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B150" s="13"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E150" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F150" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G150" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H150" s="24"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="37"/>
+      <c r="D150" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G150" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H150" s="14"/>
     </row>
     <row r="151" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B151" s="13"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="E151" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="F151" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G151" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H151" s="24"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="37"/>
+      <c r="D151" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E151" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F151" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G151" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H151" s="14"/>
     </row>
     <row r="152" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B152" s="13"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="E152" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F152" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G152" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H152" s="24"/>
+      <c r="B152" s="35"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E152" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F152" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G152" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H152" s="14"/>
     </row>
     <row r="153" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B153" s="13"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E153" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F153" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G153" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H153" s="24"/>
+      <c r="B153" s="35"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E153" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F153" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G153" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H153" s="14"/>
     </row>
     <row r="154" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B154" s="13"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E154" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F154" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G154" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H154" s="24"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E154" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F154" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G154" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H154" s="14"/>
     </row>
     <row r="155" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B155" s="13"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="23" t="s">
+      <c r="B155" s="35"/>
+      <c r="C155" s="37"/>
+      <c r="D155" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E155" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F155" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G155" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H155" s="14"/>
+    </row>
+    <row r="156" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" s="35"/>
+      <c r="C156" s="37"/>
+      <c r="D156" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E156" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F156" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G156" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H156" s="14"/>
+    </row>
+    <row r="157" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B157" s="35"/>
+      <c r="C157" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="D157" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G157" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H157" s="44"/>
+    </row>
+    <row r="158" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B158" s="35"/>
+      <c r="C158" s="50"/>
+      <c r="D158" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G158" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H158" s="44"/>
+    </row>
+    <row r="159" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B159" s="35"/>
+      <c r="C159" s="50"/>
+      <c r="D159" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E159" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F159" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G159" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H159" s="44"/>
+    </row>
+    <row r="160" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B160" s="35"/>
+      <c r="C160" s="50"/>
+      <c r="D160" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="E160" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F160" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G160" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H160" s="44"/>
+    </row>
+    <row r="161" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B161" s="35"/>
+      <c r="C161" s="50"/>
+      <c r="D161" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E161" s="42"/>
+      <c r="F161" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G161" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H161" s="44"/>
+    </row>
+    <row r="162" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B162" s="35"/>
+      <c r="C162" s="50"/>
+      <c r="D162" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="E162" s="42"/>
+      <c r="F162" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G162" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H162" s="44"/>
+    </row>
+    <row r="163" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B163" s="35"/>
+      <c r="C163" s="50"/>
+      <c r="D163" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="E155" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F155" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G155" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H155" s="24"/>
-    </row>
-    <row r="156" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="25" t="s">
+      <c r="E163" s="42"/>
+      <c r="F163" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G163" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H163" s="44"/>
+    </row>
+    <row r="164" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B164" s="35"/>
+      <c r="C164" s="50"/>
+      <c r="D164" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="E156" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F156" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G156" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H156" s="26"/>
+      <c r="E164" s="42"/>
+      <c r="F164" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G164" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H164" s="44"/>
+    </row>
+    <row r="165" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B165" s="35"/>
+      <c r="C165" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D165" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G165" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H165" s="44"/>
+    </row>
+    <row r="166" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B166" s="35"/>
+      <c r="C166" s="51"/>
+      <c r="D166" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G166" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H166" s="44"/>
+    </row>
+    <row r="167" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B167" s="35"/>
+      <c r="C167" s="51"/>
+      <c r="D167" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E167" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F167" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G167" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H167" s="44"/>
+    </row>
+    <row r="168" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B168" s="35"/>
+      <c r="C168" s="51"/>
+      <c r="D168" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E168" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F168" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G168" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H168" s="44"/>
+    </row>
+    <row r="169" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B169" s="35"/>
+      <c r="C169" s="51"/>
+      <c r="D169" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="E169" s="42"/>
+      <c r="F169" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G169" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H169" s="44"/>
+    </row>
+    <row r="170" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B170" s="35"/>
+      <c r="C170" s="51"/>
+      <c r="D170" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="E170" s="42"/>
+      <c r="F170" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G170" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H170" s="44"/>
+    </row>
+    <row r="171" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B171" s="35"/>
+      <c r="C171" s="51"/>
+      <c r="D171" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="E171" s="42"/>
+      <c r="F171" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G171" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H171" s="44"/>
+    </row>
+    <row r="172" spans="1:8" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B172" s="49"/>
+      <c r="C172" s="52"/>
+      <c r="D172" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="E172" s="45"/>
+      <c r="F172" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H172" s="47"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="42"/>
+      <c r="B173" s="42"/>
+      <c r="C173" s="43"/>
+      <c r="D173" s="42"/>
+      <c r="E173" s="42"/>
+      <c r="F173" s="42"/>
+      <c r="G173" s="42"/>
+      <c r="H173" s="42"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="42"/>
+      <c r="B174" s="42"/>
+      <c r="C174" s="43"/>
+      <c r="D174" s="42"/>
+      <c r="E174" s="42"/>
+      <c r="F174" s="42"/>
+      <c r="G174" s="42"/>
+      <c r="H174" s="42"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="42"/>
+      <c r="B175" s="42"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="42"/>
+      <c r="E175" s="42"/>
+      <c r="F175" s="42"/>
+      <c r="G175" s="42"/>
+      <c r="H175" s="42"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="42"/>
+      <c r="B176" s="42"/>
+      <c r="C176" s="42"/>
+      <c r="D176" s="42"/>
+      <c r="E176" s="42"/>
+      <c r="F176" s="42"/>
+      <c r="G176" s="42"/>
+      <c r="H176" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C146:C156"/>
+  <mergeCells count="33">
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="B149:B172"/>
+    <mergeCell ref="C149:C156"/>
+    <mergeCell ref="C157:C164"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="C18:C30"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="B44:B76"/>
+    <mergeCell ref="B77:B108"/>
+    <mergeCell ref="B109:B128"/>
+    <mergeCell ref="B129:B148"/>
+    <mergeCell ref="C138:C148"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="C92:C101"/>
-    <mergeCell ref="C102:C116"/>
-    <mergeCell ref="C117:C125"/>
-    <mergeCell ref="C126:C136"/>
-    <mergeCell ref="C137:C145"/>
-    <mergeCell ref="C52:C60"/>
-    <mergeCell ref="C61:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C76:C84"/>
-    <mergeCell ref="C85:C91"/>
-    <mergeCell ref="B52:B84"/>
-    <mergeCell ref="B85:B116"/>
-    <mergeCell ref="B117:B136"/>
-    <mergeCell ref="B137:B156"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="C18:C30"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="C84:C93"/>
+    <mergeCell ref="C94:C108"/>
+    <mergeCell ref="C109:C117"/>
+    <mergeCell ref="C118:C128"/>
+    <mergeCell ref="C129:C137"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="C53:C61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C68:C76"/>
   </mergeCells>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
